--- a/ExcelTestApp/Data/RetkeBolestiOriginal.xlsx
+++ b/ExcelTestApp/Data/RetkeBolestiOriginal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.tesanovic\Documents\visual studio 2015\Projects\ExcelTestApp\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ExcelApp\ExcelTestApp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="27870" windowHeight="13020" tabRatio="500"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="27870" windowHeight="13020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,15 +442,10 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.375" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
